--- a/artifacts/model_evaluation/metrics.xlsx
+++ b/artifacts/model_evaluation/metrics.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\VenuraP\Desktop\Browns Data Projects\ML Projects\POC\Harti-Food-Price-Prediction\artifacts\model_evaluation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D7E2FDA-7596-4733-ADC8-A1C679E31CE2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2802577-DC5B-4D36-A237-40FF8169DD1A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="8652" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
   <si>
     <t>Date</t>
   </si>
@@ -71,6 +71,18 @@
   </si>
   <si>
     <t>2024-11-18 21:58:19</t>
+  </si>
+  <si>
+    <t>2024-11-19 18:25:43</t>
+  </si>
+  <si>
+    <t>2024-11-19 19:02:54</t>
+  </si>
+  <si>
+    <t>2024-11-19 19:44:13</t>
+  </si>
+  <si>
+    <t>2024-11-19 19:48:06</t>
   </si>
 </sst>
 </file>
@@ -469,10 +481,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I9"/>
+  <dimension ref="A1:I13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -749,6 +761,110 @@
         <v>7.145213041837223E-3</v>
       </c>
     </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>17</v>
+      </c>
+      <c r="B10">
+        <v>0.99466366830837649</v>
+      </c>
+      <c r="C10">
+        <v>1.0469215643296359E-2</v>
+      </c>
+      <c r="D10">
+        <v>2.4218174313181691E-4</v>
+      </c>
+      <c r="E10">
+        <v>1.5562189535274809E-2</v>
+      </c>
+      <c r="G10">
+        <v>1.1609662322167161E-2</v>
+      </c>
+      <c r="H10">
+        <v>1.6187511085497401E-4</v>
+      </c>
+      <c r="I10">
+        <v>1.272301500647445E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11">
+        <v>0.99634952192517479</v>
+      </c>
+      <c r="C11">
+        <v>7.3396607095128422E-3</v>
+      </c>
+      <c r="D11">
+        <v>1.6567007318188631E-4</v>
+      </c>
+      <c r="E11">
+        <v>1.287128871488346E-2</v>
+      </c>
+      <c r="G11">
+        <v>8.6048133651053897E-3</v>
+      </c>
+      <c r="H11">
+        <v>8.7549734947899981E-5</v>
+      </c>
+      <c r="I11">
+        <v>9.3568015340660064E-3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12">
+        <v>0.99635133551897592</v>
+      </c>
+      <c r="C12">
+        <v>7.3403674720669641E-3</v>
+      </c>
+      <c r="D12">
+        <v>1.6562643006901099E-4</v>
+      </c>
+      <c r="E12">
+        <v>1.286959323634632E-2</v>
+      </c>
+      <c r="G12">
+        <v>1.4726490942936569E-2</v>
+      </c>
+      <c r="H12">
+        <v>2.7469074596485972E-4</v>
+      </c>
+      <c r="I12">
+        <v>1.657379696885598E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13">
+        <v>0.9957472806456138</v>
+      </c>
+      <c r="C13">
+        <v>8.8764321778146641E-3</v>
+      </c>
+      <c r="D13">
+        <v>1.9304744299884121E-4</v>
+      </c>
+      <c r="E13">
+        <v>1.389415139541963E-2</v>
+      </c>
+      <c r="G13">
+        <v>1.3674945799809121E-2</v>
+      </c>
+      <c r="H13">
+        <v>2.6207074708119112E-4</v>
+      </c>
+      <c r="I13">
+        <v>1.6188599293366641E-2</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/artifacts/model_evaluation/metrics.xlsx
+++ b/artifacts/model_evaluation/metrics.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I15"/>
+  <dimension ref="A1:I16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -943,7 +943,6 @@
       <c r="E15" t="n">
         <v>0.01409892427783829</v>
       </c>
-      <c r="F15" t="inlineStr"/>
       <c r="G15" t="n">
         <v>0.0182007622403914</v>
       </c>
@@ -952,6 +951,35 @@
       </c>
       <c r="I15" t="n">
         <v>0.02047314307470042</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>2024-11-20 14:50:24</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>0.9961673926144942</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.007499415425961405</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.0001739766272678393</v>
+      </c>
+      <c r="E16" t="n">
+        <v>0.01319001998739347</v>
+      </c>
+      <c r="F16" t="inlineStr"/>
+      <c r="G16" t="n">
+        <v>0.01775764939020219</v>
+      </c>
+      <c r="H16" t="n">
+        <v>0.0003776926955150451</v>
+      </c>
+      <c r="I16" t="n">
+        <v>0.01943431746975039</v>
       </c>
     </row>
   </sheetData>

--- a/artifacts/model_evaluation/metrics.xlsx
+++ b/artifacts/model_evaluation/metrics.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I16"/>
+  <dimension ref="A1:I17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -971,7 +971,6 @@
       <c r="E16" t="n">
         <v>0.01319001998739347</v>
       </c>
-      <c r="F16" t="inlineStr"/>
       <c r="G16" t="n">
         <v>0.01775764939020219</v>
       </c>
@@ -980,6 +979,35 @@
       </c>
       <c r="I16" t="n">
         <v>0.01943431746975039</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="inlineStr">
+        <is>
+          <t>2024-11-26 15:17:21</t>
+        </is>
+      </c>
+      <c r="B17" t="n">
+        <v>0.9961532047459436</v>
+      </c>
+      <c r="C17" t="n">
+        <v>0.00753433642676356</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.0001750359918135414</v>
+      </c>
+      <c r="E17" t="n">
+        <v>0.01323011684806833</v>
+      </c>
+      <c r="F17" t="inlineStr"/>
+      <c r="G17" t="n">
+        <v>0.02188858299558192</v>
+      </c>
+      <c r="H17" t="n">
+        <v>0.0005584442789189223</v>
+      </c>
+      <c r="I17" t="n">
+        <v>0.02363142566412197</v>
       </c>
     </row>
   </sheetData>

--- a/artifacts/model_evaluation/metrics.xlsx
+++ b/artifacts/model_evaluation/metrics.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -999,7 +999,6 @@
       <c r="E17" t="n">
         <v>0.01323011684806833</v>
       </c>
-      <c r="F17" t="inlineStr"/>
       <c r="G17" t="n">
         <v>0.02188858299558192</v>
       </c>
@@ -1008,6 +1007,343 @@
       </c>
       <c r="I17" t="n">
         <v>0.02363142566412197</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:28:32</t>
+        </is>
+      </c>
+      <c r="B18" t="n">
+        <v>0.9961272683622816</v>
+      </c>
+      <c r="C18" t="n">
+        <v>0.007608786382250166</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.0001768543921761174</v>
+      </c>
+      <c r="E18" t="n">
+        <v>0.01329866129263083</v>
+      </c>
+      <c r="G18" t="n">
+        <v>0.01506293455905632</v>
+      </c>
+      <c r="H18" t="n">
+        <v>0.0002917397529903427</v>
+      </c>
+      <c r="I18" t="n">
+        <v>0.01708039089102889</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>2024-12-02 14:33:35</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.9961272683622816</v>
+      </c>
+      <c r="C19" t="n">
+        <v>0.007608786382250166</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.0001768543921761174</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.01329866129263083</v>
+      </c>
+      <c r="G19" t="n">
+        <v>0.01506293455905632</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.0002917397529903427</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.01708039089102889</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>2024-12-02 16:47:06</t>
+        </is>
+      </c>
+      <c r="B20" t="n">
+        <v>0.9956057609533321</v>
+      </c>
+      <c r="C20" t="n">
+        <v>0.008807628479416482</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.0002013509695350387</v>
+      </c>
+      <c r="E20" t="n">
+        <v>0.01418981922136567</v>
+      </c>
+      <c r="G20" t="n">
+        <v>0.01445152294439398</v>
+      </c>
+      <c r="H20" t="n">
+        <v>0.000272907172521264</v>
+      </c>
+      <c r="I20" t="n">
+        <v>0.01651990231573008</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>2024-12-02 16:51:42</t>
+        </is>
+      </c>
+      <c r="B21" t="n">
+        <v>0.9956057609533321</v>
+      </c>
+      <c r="C21" t="n">
+        <v>0.008807628479416482</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.0002013509695350387</v>
+      </c>
+      <c r="E21" t="n">
+        <v>0.01418981922136567</v>
+      </c>
+      <c r="G21" t="n">
+        <v>0.01445152294439398</v>
+      </c>
+      <c r="H21" t="n">
+        <v>0.000272907172521264</v>
+      </c>
+      <c r="I21" t="n">
+        <v>0.01651990231573008</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>2024-12-02 16:55:08</t>
+        </is>
+      </c>
+      <c r="B22" t="n">
+        <v>0.9921798356098381</v>
+      </c>
+      <c r="C22" t="n">
+        <v>0.0139442818635473</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.0003583287359029029</v>
+      </c>
+      <c r="E22" t="n">
+        <v>0.01892957305125773</v>
+      </c>
+      <c r="G22" t="n">
+        <v>0.01143688690466009</v>
+      </c>
+      <c r="H22" t="n">
+        <v>0.0002063415543995868</v>
+      </c>
+      <c r="I22" t="n">
+        <v>0.01436459377774348</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>2024-12-02 17:03:24</t>
+        </is>
+      </c>
+      <c r="B23" t="n">
+        <v>0.9921798356098381</v>
+      </c>
+      <c r="C23" t="n">
+        <v>0.0139442818635473</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.0003583287359029029</v>
+      </c>
+      <c r="E23" t="n">
+        <v>0.01892957305125773</v>
+      </c>
+      <c r="G23" t="n">
+        <v>0.01143688690466009</v>
+      </c>
+      <c r="H23" t="n">
+        <v>0.0002063415543995868</v>
+      </c>
+      <c r="I23" t="n">
+        <v>0.01436459377774348</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>2024-12-02 17:07:43</t>
+        </is>
+      </c>
+      <c r="B24" t="n">
+        <v>0.996048209643299</v>
+      </c>
+      <c r="C24" t="n">
+        <v>0.007774794003715868</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.0001810774493781663</v>
+      </c>
+      <c r="E24" t="n">
+        <v>0.01345650212269765</v>
+      </c>
+      <c r="G24" t="n">
+        <v>0.01322528850835882</v>
+      </c>
+      <c r="H24" t="n">
+        <v>0.0002649595870469305</v>
+      </c>
+      <c r="I24" t="n">
+        <v>0.01627757927478563</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>2024-12-02 17:10:21</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>0.996048209643299</v>
+      </c>
+      <c r="C25" t="n">
+        <v>0.007774794003715868</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.0001810774493781663</v>
+      </c>
+      <c r="E25" t="n">
+        <v>0.01345650212269765</v>
+      </c>
+      <c r="G25" t="n">
+        <v>0.01322528850835882</v>
+      </c>
+      <c r="H25" t="n">
+        <v>0.0002649595870469305</v>
+      </c>
+      <c r="I25" t="n">
+        <v>0.01627757927478563</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>2024-12-02 17:26:24</t>
+        </is>
+      </c>
+      <c r="B26" t="n">
+        <v>0.996048209643299</v>
+      </c>
+      <c r="C26" t="n">
+        <v>0.007774794003715868</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.0001810774493781663</v>
+      </c>
+      <c r="E26" t="n">
+        <v>0.01345650212269765</v>
+      </c>
+      <c r="G26" t="n">
+        <v>0.01322528850835882</v>
+      </c>
+      <c r="H26" t="n">
+        <v>0.0002649595870469305</v>
+      </c>
+      <c r="I26" t="n">
+        <v>0.01627757927478563</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>2024-12-02 17:32:08</t>
+        </is>
+      </c>
+      <c r="B27" t="n">
+        <v>0.996048209643299</v>
+      </c>
+      <c r="C27" t="n">
+        <v>0.007774794003715868</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.0001810774493781663</v>
+      </c>
+      <c r="E27" t="n">
+        <v>0.01345650212269765</v>
+      </c>
+      <c r="G27" t="n">
+        <v>0.01322528850835882</v>
+      </c>
+      <c r="H27" t="n">
+        <v>0.0002649595870469305</v>
+      </c>
+      <c r="I27" t="n">
+        <v>0.01627757927478563</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>2024-12-02 17:39:14</t>
+        </is>
+      </c>
+      <c r="B28" t="n">
+        <v>0.9960491470277466</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0.007710636910772076</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.0001810345700240405</v>
+      </c>
+      <c r="E28" t="n">
+        <v>0.01345490877055807</v>
+      </c>
+      <c r="G28" t="n">
+        <v>0.01676170360845648</v>
+      </c>
+      <c r="H28" t="n">
+        <v>0.0003620553488139641</v>
+      </c>
+      <c r="I28" t="n">
+        <v>0.01902775206938445</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>2024-12-03 10:35:11</t>
+        </is>
+      </c>
+      <c r="B29" t="n">
+        <v>0.995863692216895</v>
+      </c>
+      <c r="C29" t="n">
+        <v>0.008396577694415567</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.0001895323645330481</v>
+      </c>
+      <c r="E29" t="n">
+        <v>0.01376707538052466</v>
+      </c>
+      <c r="F29" t="inlineStr"/>
+      <c r="G29" t="n">
+        <v>0.01337260734838577</v>
+      </c>
+      <c r="H29" t="n">
+        <v>0.0002468636198265327</v>
+      </c>
+      <c r="I29" t="n">
+        <v>0.01571189421510127</v>
       </c>
     </row>
   </sheetData>

--- a/artifacts/model_evaluation/metrics.xlsx
+++ b/artifacts/model_evaluation/metrics.xlsx
@@ -471,7 +471,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I29"/>
+  <dimension ref="A1:I30"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="F15" sqref="F15"/>
@@ -1335,7 +1335,6 @@
       <c r="E29" t="n">
         <v>0.01376707538052466</v>
       </c>
-      <c r="F29" t="inlineStr"/>
       <c r="G29" t="n">
         <v>0.01337260734838577</v>
       </c>
@@ -1344,6 +1343,35 @@
       </c>
       <c r="I29" t="n">
         <v>0.01571189421510127</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>2024-12-09 09:16:46</t>
+        </is>
+      </c>
+      <c r="B30" t="n">
+        <v>0.9961636085978972</v>
+      </c>
+      <c r="C30" t="n">
+        <v>0.00762124003657671</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.0001757898104453401</v>
+      </c>
+      <c r="E30" t="n">
+        <v>0.01325857497792806</v>
+      </c>
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="n">
+        <v>0.0130750132779512</v>
+      </c>
+      <c r="H30" t="n">
+        <v>0.0002447681723678711</v>
+      </c>
+      <c r="I30" t="n">
+        <v>0.01564506862777761</v>
       </c>
     </row>
   </sheetData>
